--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>1.910666127459315</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>0.1715429114845346</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>0.2478029645461621</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.8004663283405655</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>4.590949402546851</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>5.253783907501819</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>6.528307842404013</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>3.522405026196918</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>2.728164648391185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.656063945467268</v>
+        <v>1.133560223479058</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>5.01424274443687</v>
+        <v>1.985690391709771</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>4.06235252733802</v>
+        <v>3.633318781899142</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>4.963935273957154</v>
+        <v>2.715291551682419</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.05427116350534</v>
+        <v>3.057638025163611</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.973747512448343</v>
+        <v>2.42782168586293</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.305809238174006</v>
+        <v>2.319057151538662</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.420751168230217</v>
+        <v>2.508920621023392</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.509111342826809</v>
+        <v>2.536029549059826</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.434773703516147</v>
+        <v>2.546671316138061</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.297011904810243</v>
+        <v>3.120740332206995</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.699746550608474</v>
+        <v>2.775533179497169</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.783907785663198</v>
+        <v>2.891533899000343</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.798452007460738</v>
+        <v>2.545843589346886</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.841406700970061</v>
+        <v>2.618329006605924</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.136136986781323</v>
+        <v>2.671430903007876</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.134077088567254</v>
+        <v>2.137626121054947</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.829971696551858</v>
+        <v>2.891950990452763</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>5.04459987483179</v>
+        <v>4.951039758187648</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>4.366242242642326</v>
+        <v>3.481452844954491</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.824943501366195</v>
+        <v>2.838865660558509</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.591136243562021</v>
+        <v>2.377254777217375</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.580512425878888</v>
+        <v>1.625773169906108</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.455689670679972</v>
+        <v>2.42082970885531</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.057287156976417</v>
+        <v>2.030491763452114</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>3.10450669425526</v>
+        <v>2.559374235215039</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>5.907218141265402</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>5.917486466529609</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>6.511263427347003</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>6.422943767670297</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>4.325828829470257</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>4.493586323244281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.133560223479058</v>
+        <v>2.964652118442834</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.985690391709771</v>
+        <v>3.83627393798931</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>3.633318781899142</v>
+        <v>3.171852776411788</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.715291551682419</v>
+        <v>4.030605385534614</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.057638025163611</v>
+        <v>1.773712379859993</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>2.42782168586293</v>
+        <v>3.484530515673856</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.319057151538662</v>
+        <v>2.533350906619081</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.508920621023392</v>
+        <v>3.524103740130435</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.536029549059826</v>
+        <v>2.661040979345697</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.546671316138061</v>
+        <v>3.567108445582057</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.120740332206995</v>
+        <v>3.150198973767537</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.775533179497169</v>
+        <v>3.699072253610103</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.891533899000343</v>
+        <v>0.4641929091049102</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.545843589346886</v>
+        <v>2.550259844884462</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.618329006605924</v>
+        <v>2.585454129751663</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.671430903007876</v>
+        <v>2.671828487424377</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.137626121054947</v>
+        <v>-0.4532848472497908</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.891950990452763</v>
+        <v>2.066462658785673</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>4.951039758187648</v>
+        <v>0.9477102747197819</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.481452844954491</v>
+        <v>1.83067479293082</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.838865660558509</v>
+        <v>2.222852754198135</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.377254777217375</v>
+        <v>1.934107558751452</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.625773169906108</v>
+        <v>-0.007094633234694392</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.42082970885531</v>
+        <v>1.444584248586422</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.030491763452114</v>
+        <v>3.078872076370009</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.559374235215039</v>
+        <v>2.279508996785351</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.4532848472497908</v>
+        <v>-0.3319353158441452</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.066462658785673</v>
+        <v>2.167555787027031</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.9477102747197819</v>
+        <v>0.8695326511122925</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.83067479293082</v>
+        <v>1.760401078468798</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.222852754198135</v>
+        <v>2.384611583901286</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.934107558751452</v>
+        <v>2.068660354597474</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.007094633234694392</v>
+        <v>0.08046895846371971</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.444584248586422</v>
+        <v>1.524741412459951</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>3.078872076370009</v>
+        <v>3.067084363766437</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.279508996785351</v>
+        <v>2.244137191125728</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_summer.xlsx
@@ -479,13 +479,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>4.325828829470257</v>
+        <v>4.32582882947028</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>4.493586323244281</v>
+        <v>4.493586323244259</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>2.964652118442834</v>
+        <v>2.964652118442856</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>3.83627393798931</v>
+        <v>3.836273937989332</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -536,7 +536,7 @@
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.484530515673856</v>
+        <v>3.484530515673834</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.533350906619081</v>
+        <v>2.533350906619103</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>3.524103740130435</v>
+        <v>3.524103740130458</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,7 +564,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.661040979345697</v>
+        <v>2.661040979345719</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -587,7 +587,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.699072253610103</v>
+        <v>3.699072253610125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -615,7 +615,7 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.585454129751663</v>
+        <v>2.585454129751641</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -632,7 +632,7 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.3319353158441452</v>
+        <v>-0.3319353158441563</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.8695326511122925</v>
+        <v>0.8695326511123147</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.760401078468798</v>
+        <v>1.760401078468776</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.08046895846371971</v>
+        <v>0.0804689584636975</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.524741412459951</v>
+        <v>1.524741412459929</v>
       </c>
     </row>
     <row r="19" spans="1:5">
